--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2907086.6284379</v>
+        <v>2904215.291711221</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8651274.294710012</v>
+        <v>8651274.294710014</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +674,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.478598521151552</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.478598521151547</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,70 +738,70 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="T3" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>13.35464426286299</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,70 +820,70 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="E4" t="n">
-        <v>13.58434214447045</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14.93225064571201</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.35464426286299</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,70 +972,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>13.35464426286299</v>
+      </c>
+      <c r="V6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="E6" t="n">
+      <c r="W6" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>13.35464426286299</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1057,67 +1057,67 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>13.58434214447045</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>14.93225064571201</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.50184046889792</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="C8" t="n">
-        <v>104.0154267588395</v>
+        <v>27.50184046889786</v>
       </c>
       <c r="D8" t="n">
-        <v>104.0154267588395</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.62747247092896</v>
+        <v>43.62747247092901</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="C9" t="n">
-        <v>104.0154267588395</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>104.0154267588395</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.97281151398483</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="T9" t="n">
-        <v>47.64397637520091</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>91.61678788918569</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.0154267588395</v>
+        <v>68.98239880211152</v>
       </c>
       <c r="C10" t="n">
-        <v>104.0154267588395</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.0154267588395</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.63438908707413</v>
+        <v>22.63438908707415</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>68.98239880211165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>213.9987150475857</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833814</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.33703994142962</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784695</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833814</v>
+        <v>98.72106119200248</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>217.6587144826188</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>39.96816871822014</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>175.3193898991449</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="C2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="D2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="E2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="F2" t="n">
-        <v>16.52805540473048</v>
+        <v>23.07209431498457</v>
       </c>
       <c r="G2" t="n">
-        <v>1.212955882185558</v>
+        <v>7.756994792439651</v>
       </c>
       <c r="H2" t="n">
         <v>1.212955882185558</v>
@@ -4331,19 +4331,19 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K2" t="n">
-        <v>1.212955882185558</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="L2" t="n">
-        <v>15.61680698313905</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="M2" t="n">
-        <v>15.61680698313905</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N2" t="n">
-        <v>30.62713602518533</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O2" t="n">
-        <v>45.6374650672316</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P2" t="n">
         <v>60.64779410927788</v>
@@ -4352,28 +4352,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R2" t="n">
-        <v>54.10375519902379</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S2" t="n">
-        <v>38.78865567647888</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T2" t="n">
-        <v>38.78865567647888</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U2" t="n">
-        <v>38.78865567647888</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V2" t="n">
-        <v>38.78865567647888</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="X2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C3" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D3" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E3" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F3" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G3" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I3" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="J3" t="n">
-        <v>7.519576199182468</v>
+        <v>7.519576199182469</v>
       </c>
       <c r="K3" t="n">
-        <v>22.52990524122874</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="L3" t="n">
-        <v>37.54023428327502</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="M3" t="n">
+        <v>30.62713602518533</v>
+      </c>
+      <c r="N3" t="n">
         <v>45.6374650672316</v>
-      </c>
-      <c r="N3" t="n">
-        <v>60.64779410927788</v>
       </c>
       <c r="O3" t="n">
         <v>60.64779410927788</v>
@@ -4431,28 +4431,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R3" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="S3" t="n">
         <v>45.33269458673296</v>
       </c>
       <c r="T3" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="U3" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="V3" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="W3" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="X3" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
     </row>
     <row r="4">
@@ -4462,52 +4462,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C4" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D4" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="J4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K4" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="L4" t="n">
-        <v>16.22328492423183</v>
+        <v>10.74933455546547</v>
       </c>
       <c r="M4" t="n">
-        <v>31.23361396627811</v>
+        <v>25.75966359751175</v>
       </c>
       <c r="N4" t="n">
-        <v>46.24394300832439</v>
+        <v>40.76999263955803</v>
       </c>
       <c r="O4" t="n">
-        <v>55.78032168160431</v>
+        <v>55.7803216816043</v>
       </c>
       <c r="P4" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="Q4" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="R4" t="n">
         <v>45.33269458673296</v>
@@ -4519,19 +4519,19 @@
         <v>45.33269458673296</v>
       </c>
       <c r="U4" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="V4" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W4" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="X4" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="C5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="D5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="E5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="F5" t="n">
-        <v>31.8431549272754</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="G5" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H5" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I5" t="n">
         <v>1.212955882185558</v>
@@ -4571,19 +4571,19 @@
         <v>1.212955882185558</v>
       </c>
       <c r="L5" t="n">
-        <v>15.61680698313905</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M5" t="n">
-        <v>30.62713602518533</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N5" t="n">
-        <v>45.6374650672316</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="O5" t="n">
-        <v>60.64779410927788</v>
+        <v>46.24394300832439</v>
       </c>
       <c r="P5" t="n">
-        <v>60.64779410927788</v>
+        <v>55.48699579178731</v>
       </c>
       <c r="Q5" t="n">
         <v>60.64779410927788</v>
@@ -4598,19 +4598,19 @@
         <v>45.33269458673296</v>
       </c>
       <c r="U5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="V5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="W5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="X5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="Y5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.15825444982032</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C6" t="n">
-        <v>47.15825444982032</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E6" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F6" t="n">
         <v>1.212955882185558</v>
@@ -4644,25 +4644,25 @@
         <v>1.212955882185558</v>
       </c>
       <c r="J6" t="n">
-        <v>1.212955882185558</v>
+        <v>7.519576199182469</v>
       </c>
       <c r="K6" t="n">
-        <v>16.22328492423183</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="L6" t="n">
-        <v>31.23361396627811</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="M6" t="n">
-        <v>46.24394300832439</v>
+        <v>37.54023428327503</v>
       </c>
       <c r="N6" t="n">
-        <v>60.64779410927788</v>
+        <v>37.54023428327503</v>
       </c>
       <c r="O6" t="n">
-        <v>60.64779410927788</v>
+        <v>37.54023428327503</v>
       </c>
       <c r="P6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="Q6" t="n">
         <v>60.64779410927788</v>
@@ -4674,22 +4674,22 @@
         <v>60.64779410927788</v>
       </c>
       <c r="T6" t="n">
-        <v>47.15825444982032</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="U6" t="n">
         <v>47.15825444982032</v>
       </c>
       <c r="V6" t="n">
-        <v>47.15825444982032</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="W6" t="n">
-        <v>47.15825444982032</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="X6" t="n">
-        <v>47.15825444982032</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="Y6" t="n">
-        <v>47.15825444982032</v>
+        <v>16.52805540473048</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D7" t="n">
-        <v>31.61113686504564</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="J7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K7" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="L7" t="n">
-        <v>10.74933455546547</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M7" t="n">
-        <v>25.75966359751175</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N7" t="n">
-        <v>40.76999263955803</v>
+        <v>46.24394300832439</v>
       </c>
       <c r="O7" t="n">
         <v>55.7803216816043</v>
@@ -4744,7 +4744,7 @@
         <v>60.64779410927788</v>
       </c>
       <c r="Q7" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="R7" t="n">
         <v>45.33269458673296</v>
@@ -4759,16 +4759,16 @@
         <v>45.33269458673296</v>
       </c>
       <c r="V7" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W7" t="n">
-        <v>45.33269458673296</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="X7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>344.2139161870478</v>
+        <v>161.8613777539355</v>
       </c>
       <c r="C8" t="n">
-        <v>239.1478285518564</v>
+        <v>134.0817409166649</v>
       </c>
       <c r="D8" t="n">
-        <v>134.081740916665</v>
+        <v>134.0817409166649</v>
       </c>
       <c r="E8" t="n">
-        <v>29.01565328147367</v>
+        <v>29.01565328147366</v>
       </c>
       <c r="F8" t="n">
-        <v>22.0701525322702</v>
+        <v>22.07015253227019</v>
       </c>
       <c r="G8" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="H8" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="I8" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="J8" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="K8" t="n">
-        <v>78.47009898812546</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="L8" t="n">
-        <v>109.2934725443559</v>
+        <v>109.293472544356</v>
       </c>
       <c r="M8" t="n">
-        <v>175.2598520980242</v>
+        <v>175.2598520980241</v>
       </c>
       <c r="N8" t="n">
-        <v>246.9074450174303</v>
+        <v>246.9074450174301</v>
       </c>
       <c r="O8" t="n">
-        <v>301.2269740772371</v>
+        <v>301.2269740772368</v>
       </c>
       <c r="P8" t="n">
-        <v>313.0864345441067</v>
+        <v>313.0864345441064</v>
       </c>
       <c r="Q8" t="n">
-        <v>416.0617070353578</v>
+        <v>416.0617070353574</v>
       </c>
       <c r="R8" t="n">
-        <v>371.9935530243184</v>
+        <v>371.993553024318</v>
       </c>
       <c r="S8" t="n">
-        <v>371.9935530243184</v>
+        <v>266.9274653891267</v>
       </c>
       <c r="T8" t="n">
-        <v>371.9935530243184</v>
+        <v>266.9274653891267</v>
       </c>
       <c r="U8" t="n">
-        <v>371.9935530243184</v>
+        <v>266.9274653891267</v>
       </c>
       <c r="V8" t="n">
-        <v>371.9935530243184</v>
+        <v>266.9274653891267</v>
       </c>
       <c r="W8" t="n">
-        <v>371.9935530243184</v>
+        <v>266.9274653891267</v>
       </c>
       <c r="X8" t="n">
-        <v>371.9935530243184</v>
+        <v>266.9274653891267</v>
       </c>
       <c r="Y8" t="n">
-        <v>371.9935530243184</v>
+        <v>266.9274653891267</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>218.4534094110899</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="C9" t="n">
-        <v>113.3873217758985</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="D9" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="E9" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="F9" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="G9" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="H9" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="I9" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="J9" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="K9" t="n">
-        <v>16.52325184929657</v>
+        <v>16.5232518492965</v>
       </c>
       <c r="L9" t="n">
-        <v>73.87441800550246</v>
+        <v>116.3817942504399</v>
       </c>
       <c r="M9" t="n">
-        <v>160.1573920023127</v>
+        <v>202.66476824725</v>
       </c>
       <c r="N9" t="n">
-        <v>263.1326644935638</v>
+        <v>305.6400407385009</v>
       </c>
       <c r="O9" t="n">
-        <v>335.1151257719265</v>
+        <v>377.6225020168636</v>
       </c>
       <c r="P9" t="n">
-        <v>373.5543307904204</v>
+        <v>416.0617070353574</v>
       </c>
       <c r="Q9" t="n">
-        <v>416.0617070353578</v>
+        <v>416.0617070353574</v>
       </c>
       <c r="R9" t="n">
-        <v>371.6447257081004</v>
+        <v>416.0617070353574</v>
       </c>
       <c r="S9" t="n">
-        <v>371.6447257081004</v>
+        <v>310.9956194001661</v>
       </c>
       <c r="T9" t="n">
-        <v>323.5194970462813</v>
+        <v>310.9956194001661</v>
       </c>
       <c r="U9" t="n">
-        <v>323.5194970462813</v>
+        <v>205.9295317649749</v>
       </c>
       <c r="V9" t="n">
-        <v>323.5194970462813</v>
+        <v>205.9295317649749</v>
       </c>
       <c r="W9" t="n">
-        <v>323.5194970462813</v>
+        <v>113.3873217758984</v>
       </c>
       <c r="X9" t="n">
-        <v>323.5194970462813</v>
+        <v>113.3873217758984</v>
       </c>
       <c r="Y9" t="n">
-        <v>323.5194970462813</v>
+        <v>113.3873217758984</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.4534094110899</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="C10" t="n">
-        <v>113.3873217758985</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="D10" t="n">
-        <v>113.3873217758985</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="E10" t="n">
-        <v>113.3873217758985</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="F10" t="n">
-        <v>113.3873217758985</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="G10" t="n">
-        <v>113.3873217758985</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="H10" t="n">
-        <v>113.3873217758985</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="I10" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="J10" t="n">
-        <v>8.321234140707157</v>
+        <v>8.321234140707148</v>
       </c>
       <c r="K10" t="n">
-        <v>8.321234140707157</v>
+        <v>73.53581884437482</v>
       </c>
       <c r="L10" t="n">
-        <v>111.2965066319582</v>
+        <v>176.5110913356258</v>
       </c>
       <c r="M10" t="n">
-        <v>214.2717791232093</v>
+        <v>224.9414260552246</v>
       </c>
       <c r="N10" t="n">
-        <v>317.2470516144604</v>
+        <v>224.9414260552246</v>
       </c>
       <c r="O10" t="n">
-        <v>327.9166985464759</v>
+        <v>327.9166985464755</v>
       </c>
       <c r="P10" t="n">
-        <v>416.0617070353578</v>
+        <v>416.0617070353574</v>
       </c>
       <c r="Q10" t="n">
-        <v>393.198687755485</v>
+        <v>393.1986877554845</v>
       </c>
       <c r="R10" t="n">
-        <v>393.198687755485</v>
+        <v>393.1986877554845</v>
       </c>
       <c r="S10" t="n">
-        <v>393.198687755485</v>
+        <v>288.1326001202932</v>
       </c>
       <c r="T10" t="n">
-        <v>393.198687755485</v>
+        <v>183.066512485102</v>
       </c>
       <c r="U10" t="n">
-        <v>393.198687755485</v>
+        <v>78.0004248499107</v>
       </c>
       <c r="V10" t="n">
-        <v>393.198687755485</v>
+        <v>78.0004248499107</v>
       </c>
       <c r="W10" t="n">
-        <v>393.198687755485</v>
+        <v>78.0004248499107</v>
       </c>
       <c r="X10" t="n">
-        <v>393.198687755485</v>
+        <v>78.0004248499107</v>
       </c>
       <c r="Y10" t="n">
-        <v>323.5194970462813</v>
+        <v>78.0004248499107</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5179,16 +5179,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5419,13 +5419,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5604,16 +5604,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,7 +6020,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6069,22 +6069,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6130,16 +6130,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,28 +6449,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6488,10 +6488,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6500,7 +6500,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,49 +6686,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466574</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6959,25 +6959,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,16 +7488,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,16 +7679,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>217.342912363454</v>
       </c>
       <c r="L2" t="n">
-        <v>228.0982013216979</v>
+        <v>228.7108053025997</v>
       </c>
       <c r="M2" t="n">
         <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>219.453681055507</v>
+        <v>218.8410770746052</v>
       </c>
       <c r="O2" t="n">
         <v>221.538799378194</v>
       </c>
       <c r="P2" t="n">
-        <v>226.149311848474</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664799</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>140.8394464083196</v>
+        <v>133.8565188748957</v>
       </c>
       <c r="L3" t="n">
-        <v>137.3604083836059</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>131.2264678239906</v>
+        <v>138.2093953574145</v>
       </c>
       <c r="N3" t="n">
         <v>126.9119083523187</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>139.8355672148734</v>
       </c>
       <c r="P3" t="n">
         <v>119.5899201578276</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>140.6574822216631</v>
+        <v>135.1282394249294</v>
       </c>
       <c r="M4" t="n">
         <v>144.1881980719757</v>
@@ -8149,7 +8149,7 @@
         <v>133.1833473911586</v>
       </c>
       <c r="O4" t="n">
-        <v>139.1628415322489</v>
+        <v>144.6920843289826</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8219,22 +8219,22 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>228.0982013216979</v>
+        <v>228.7108053025997</v>
       </c>
       <c r="M5" t="n">
         <v>220.7868673978199</v>
       </c>
       <c r="N5" t="n">
-        <v>219.453681055507</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
         <v>221.538799378194</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>220.3237802741473</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>140.8394464083196</v>
       </c>
       <c r="L6" t="n">
-        <v>137.3604083836059</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
         <v>138.2093953574145</v>
       </c>
       <c r="N6" t="n">
-        <v>126.2993043714169</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
         <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>127.7689411517231</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>145.5280738211766</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,7 +8377,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>135.1282394249294</v>
+        <v>140.6574822216631</v>
       </c>
       <c r="M7" t="n">
         <v>144.1881980719757</v>
@@ -8386,7 +8386,7 @@
         <v>133.1833473911586</v>
       </c>
       <c r="O7" t="n">
-        <v>144.6920843289826</v>
+        <v>139.1628415322489</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>37.49822606405687</v>
+        <v>37.49822606405692</v>
       </c>
       <c r="K8" t="n">
-        <v>75.80653116621563</v>
+        <v>4.949091926399262</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>70.85743923981661</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>143.6788466430827</v>
+        <v>143.6788466430826</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>41.34161277437097</v>
+        <v>41.341612774371</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>42.93674368175512</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.40503239934543</v>
+        <v>24.46828871759045</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,19 +8611,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>40.87044846215989</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.1076531206119</v>
+        <v>126.1076531206118</v>
       </c>
       <c r="M10" t="n">
-        <v>124.0173869348077</v>
+        <v>68.92149019576502</v>
       </c>
       <c r="N10" t="n">
-        <v>115.6048901739094</v>
+        <v>11.58946341507001</v>
       </c>
       <c r="O10" t="n">
-        <v>42.00043805023627</v>
+        <v>135.2384436656256</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,13 +11306,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>38.13892827624232</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393071</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2784330767827</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823103</v>
+        <v>47.71290145456669</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>31.13893193492464</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661655</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846406</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365054</v>
@@ -26335,22 +26335,22 @@
         <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365055</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38828.05978165939</v>
+        <v>38828.0597816594</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>357912.3110366679</v>
+        <v>357912.3110366677</v>
       </c>
       <c r="E3" t="n">
-        <v>1080121.758724494</v>
+        <v>1080121.758724495</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3967.032860482045</v>
+        <v>3967.032860481986</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22488.01565909374</v>
+        <v>22488.01565909357</v>
       </c>
       <c r="M3" t="n">
-        <v>266322.5358175749</v>
+        <v>266322.5358175751</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>405703.6705393202</v>
       </c>
       <c r="D4" t="n">
-        <v>310629.0408162413</v>
+        <v>310629.0408162414</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744289</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
@@ -26433,31 +26433,31 @@
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744313</v>
       </c>
       <c r="I4" t="n">
+        <v>8727.256391744268</v>
+      </c>
+      <c r="J4" t="n">
         <v>8727.256391744295</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.25639174426</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744309</v>
       </c>
-      <c r="K4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744322</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744282</v>
-      </c>
       <c r="N4" t="n">
+        <v>8727.256391744302</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="O4" t="n">
-        <v>8727.256391744293</v>
-      </c>
       <c r="P4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744295</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218040.864109523</v>
+        <v>218040.8641095229</v>
       </c>
       <c r="C6" t="n">
         <v>256868.9238911824</v>
       </c>
       <c r="D6" t="n">
-        <v>-19779.12753963441</v>
+        <v>-19779.12753963388</v>
       </c>
       <c r="E6" t="n">
-        <v>-503896.93520364</v>
+        <v>-503931.6731290765</v>
       </c>
       <c r="F6" t="n">
-        <v>576224.8235208542</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="G6" t="n">
-        <v>576224.8235208538</v>
+        <v>576190.0855954189</v>
       </c>
       <c r="H6" t="n">
-        <v>576224.8235208542</v>
+        <v>576190.0855954183</v>
       </c>
       <c r="I6" t="n">
-        <v>576224.8235208542</v>
+        <v>576190.0855954186</v>
       </c>
       <c r="J6" t="n">
-        <v>572257.7906603722</v>
+        <v>572223.0527349366</v>
       </c>
       <c r="K6" t="n">
-        <v>576224.8235208541</v>
+        <v>576190.0855954186</v>
       </c>
       <c r="L6" t="n">
-        <v>553736.8078617605</v>
+        <v>553702.0699363252</v>
       </c>
       <c r="M6" t="n">
-        <v>309902.2877032791</v>
+        <v>309867.5497778433</v>
       </c>
       <c r="N6" t="n">
-        <v>576224.8235208541</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="O6" t="n">
-        <v>576224.8235208543</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="P6" t="n">
-        <v>576224.8235208542</v>
+        <v>576190.0855954186</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>420.7129414875514</v>
+        <v>420.7129414875512</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="D4" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>385.6916807684261</v>
+        <v>385.6916807684259</v>
       </c>
       <c r="E3" t="n">
-        <v>947.2625588541223</v>
+        <v>947.2625588541225</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.85347823151999</v>
+        <v>88.85347823151987</v>
       </c>
       <c r="E4" t="n">
         <v>1068.692861340809</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.16194852731974</v>
+        <v>15.16194852731951</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823152044</v>
+        <v>88.85347823151987</v>
       </c>
       <c r="M4" t="n">
         <v>1068.692861340809</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823151999</v>
+        <v>88.85347823151987</v>
       </c>
       <c r="M4" t="n">
         <v>1068.692861340809</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>331.5543483731493</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.5466831641278</v>
+        <v>125.8633331579598</v>
       </c>
       <c r="S2" t="n">
-        <v>190.6498919990783</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -27436,10 +27436,10 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>312.5903099428155</v>
       </c>
       <c r="W2" t="n">
-        <v>334.0790201900936</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>157.5465504609963</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>98.15328284058145</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>71.64112869536794</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>80.3188953730601</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>155.1220240940137</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>184.6991524448524</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>210.7744777148743</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>192.4183409406145</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>133.4535244908929</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>132.8496205020987</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.71188435578699</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>159.2918501364599</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27591,19 +27591,19 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>271.1536361150023</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>271.3610498092715</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>205.2300090892318</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.5214014788485</v>
+        <v>391.714097214392</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>189.8861735903263</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>237.9797455259483</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>151.3712351225479</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>132.2831170373193</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>142.4831319280815</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>129.9072638660644</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27746,16 +27746,16 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>186.5064567093088</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>212.5817819793308</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.6386386221058</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>236.5330346336001</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>135.0311308737419</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>131.2720141192497</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.71188435578699</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>159.2918501364599</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
@@ -27831,13 +27831,13 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>236.9756947965085</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>273.168354073728</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>210.5477068617177</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>355.2320011945827</v>
+        <v>278.7184149046412</v>
       </c>
       <c r="C8" t="n">
-        <v>261.2574650121681</v>
+        <v>337.7710513021097</v>
       </c>
       <c r="D8" t="n">
-        <v>250.6676148618435</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>277.9149433134223</v>
+        <v>277.9149433134224</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>170.4793815293706</v>
+        <v>66.46395477053133</v>
       </c>
       <c r="T8" t="n">
         <v>215.6921474481042</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.51775689102789</v>
+        <v>62.517756891028</v>
       </c>
       <c r="C9" t="n">
-        <v>68.69307222947629</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>43.4296388057993</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,7 +27950,7 @@
         <v>103.4957282255947</v>
       </c>
       <c r="I9" t="n">
-        <v>58.24006124125206</v>
+        <v>58.24006124125208</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>43.97281151398485</v>
       </c>
       <c r="S9" t="n">
-        <v>154.8744983944059</v>
+        <v>50.85907163556661</v>
       </c>
       <c r="T9" t="n">
-        <v>148.8732504967239</v>
+        <v>196.5172268719248</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8818472307643</v>
+        <v>121.866420471925</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>160.0781952717339</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.81655342309784</v>
+        <v>110.8495813798258</v>
       </c>
       <c r="C10" t="n">
-        <v>63.23139433978838</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>155.4819715767047</v>
       </c>
       <c r="I10" t="n">
-        <v>28.61999225955293</v>
+        <v>132.6354190183924</v>
       </c>
       <c r="J10" t="n">
-        <v>39.72172854374348</v>
+        <v>39.7217285437435</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>143.1811584493428</v>
       </c>
       <c r="S10" t="n">
-        <v>210.7951765807159</v>
+        <v>106.7797498218766</v>
       </c>
       <c r="T10" t="n">
-        <v>224.7040306987872</v>
+        <v>120.6886039399479</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2776477556889</v>
+        <v>182.2622209968495</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.6022545499831</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31045,16 +31045,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760118</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884598</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470701</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
         <v>24.72131435677232</v>
@@ -31072,16 +31072,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520186</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779988</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31139,7 +31139,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31148,19 +31148,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164373</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263568</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497751</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,43 +31197,43 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623702</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170844</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948817</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394047</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938411</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587923</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390062</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
         <v>0.2698359432457196</v>
@@ -31516,46 +31516,46 @@
         <v>1.691308307487642</v>
       </c>
       <c r="H8" t="n">
-        <v>17.32111120405783</v>
+        <v>17.32111120405782</v>
       </c>
       <c r="I8" t="n">
-        <v>65.2041635244174</v>
+        <v>65.20416352441738</v>
       </c>
       <c r="J8" t="n">
         <v>143.5476784626294</v>
       </c>
       <c r="K8" t="n">
-        <v>215.1407591185814</v>
+        <v>215.1407591185813</v>
       </c>
       <c r="L8" t="n">
-        <v>266.9011357338564</v>
+        <v>266.9011357338563</v>
       </c>
       <c r="M8" t="n">
-        <v>296.9789398471397</v>
+        <v>296.9789398471396</v>
       </c>
       <c r="N8" t="n">
-        <v>301.784369575789</v>
+        <v>301.7843695757889</v>
       </c>
       <c r="O8" t="n">
-        <v>284.9664225932087</v>
+        <v>284.9664225932086</v>
       </c>
       <c r="P8" t="n">
         <v>243.2122487521075</v>
       </c>
       <c r="Q8" t="n">
-        <v>182.6422699902063</v>
+        <v>182.6422699902062</v>
       </c>
       <c r="R8" t="n">
         <v>106.2416454702207</v>
       </c>
       <c r="S8" t="n">
-        <v>38.54068805687469</v>
+        <v>38.54068805687468</v>
       </c>
       <c r="T8" t="n">
-        <v>7.403702116027159</v>
+        <v>7.403702116027156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1353046645990114</v>
+        <v>0.1353046645990113</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9049297231996389</v>
+        <v>0.9049297231996385</v>
       </c>
       <c r="H9" t="n">
-        <v>8.739716010901777</v>
+        <v>8.739716010901773</v>
       </c>
       <c r="I9" t="n">
-        <v>31.15657161016301</v>
+        <v>31.156571610163</v>
       </c>
       <c r="J9" t="n">
-        <v>85.49601389229572</v>
+        <v>85.49601389229569</v>
       </c>
       <c r="K9" t="n">
         <v>146.1263053466715</v>
       </c>
       <c r="L9" t="n">
-        <v>196.4848506447286</v>
+        <v>196.4848506447285</v>
       </c>
       <c r="M9" t="n">
-        <v>229.2885531107155</v>
+        <v>229.2885531107154</v>
       </c>
       <c r="N9" t="n">
-        <v>235.3571388421728</v>
+        <v>235.3571388421727</v>
       </c>
       <c r="O9" t="n">
-        <v>215.3058012912755</v>
+        <v>215.3058012912754</v>
       </c>
       <c r="P9" t="n">
-        <v>172.8018872309907</v>
+        <v>172.8018872309906</v>
       </c>
       <c r="Q9" t="n">
         <v>115.5134853684311</v>
       </c>
       <c r="R9" t="n">
-        <v>56.1850226386583</v>
+        <v>56.18502263865828</v>
       </c>
       <c r="S9" t="n">
-        <v>16.80867270943188</v>
+        <v>16.80867270943187</v>
       </c>
       <c r="T9" t="n">
-        <v>3.647501822896789</v>
+        <v>3.647501822896787</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05953485021050258</v>
+        <v>0.05953485021050256</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7586626813709942</v>
+        <v>0.7586626813709939</v>
       </c>
       <c r="H10" t="n">
-        <v>6.745200930734844</v>
+        <v>6.745200930734842</v>
       </c>
       <c r="I10" t="n">
-        <v>22.81505590886591</v>
+        <v>22.8150559088659</v>
       </c>
       <c r="J10" t="n">
-        <v>53.63745157292929</v>
+        <v>53.63745157292927</v>
       </c>
       <c r="K10" t="n">
-        <v>88.14280970837549</v>
+        <v>88.14280970837545</v>
       </c>
       <c r="L10" t="n">
         <v>112.7924499194658</v>
@@ -31695,25 +31695,25 @@
         <v>116.0960810501632</v>
       </c>
       <c r="O10" t="n">
-        <v>107.2335215450566</v>
+        <v>107.2335215450565</v>
       </c>
       <c r="P10" t="n">
-        <v>91.75680284508822</v>
+        <v>91.75680284508817</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.52765416462026</v>
+        <v>63.52765416462024</v>
       </c>
       <c r="R10" t="n">
-        <v>34.1122329278267</v>
+        <v>34.11223292782668</v>
       </c>
       <c r="S10" t="n">
         <v>13.22142145625632</v>
       </c>
       <c r="T10" t="n">
-        <v>3.241558729494247</v>
+        <v>3.241558729494246</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04138160080205428</v>
+        <v>0.04138160080205426</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>476.0648089385468</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,10 +32789,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>399.1902208908131</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>434.178635838203</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>393.3904345522228</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="L2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>14.54934454641767</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15.16194852731947</v>
       </c>
       <c r="O2" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="P2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522131</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
+        <v>8.179020993895534</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="L3" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="M3" t="n">
-        <v>8.179020993895538</v>
       </c>
       <c r="N3" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.16194852731947</v>
+        <v>9.632705730585775</v>
       </c>
       <c r="M4" t="n">
         <v>15.16194852731947</v>
@@ -34869,10 +34869,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="O4" t="n">
-        <v>9.632705730585778</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831899</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>14.54934454641767</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="N5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>9.336416952992851</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="L6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="N6" t="n">
-        <v>14.54934454641767</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>8.179020993895531</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>9.632705730585775</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M7" t="n">
         <v>15.16194852731947</v>
@@ -35106,7 +35106,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="O7" t="n">
-        <v>15.16194852731947</v>
+        <v>9.632705730585771</v>
       </c>
       <c r="P7" t="n">
         <v>4.916638815831901</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>70.85743923981646</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>31.13472076386915</v>
+        <v>101.9921600036857</v>
       </c>
       <c r="M8" t="n">
-        <v>66.63270661986698</v>
+        <v>66.63270661986687</v>
       </c>
       <c r="N8" t="n">
-        <v>72.3713059791981</v>
+        <v>72.37130597919798</v>
       </c>
       <c r="O8" t="n">
-        <v>54.86821117152201</v>
+        <v>54.86821117152189</v>
       </c>
       <c r="P8" t="n">
-        <v>11.979252996838</v>
+        <v>11.97925299683791</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>8.284866372312536</v>
+        <v>8.284866372312479</v>
       </c>
       <c r="L9" t="n">
-        <v>57.93047086485444</v>
+        <v>100.8672145466095</v>
       </c>
       <c r="M9" t="n">
-        <v>87.15451918869718</v>
+        <v>87.15451918869707</v>
       </c>
       <c r="N9" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588394</v>
       </c>
       <c r="O9" t="n">
-        <v>72.70955684683105</v>
+        <v>72.70955684683096</v>
       </c>
       <c r="P9" t="n">
-        <v>38.82747981666046</v>
+        <v>38.8274798166604</v>
       </c>
       <c r="Q9" t="n">
-        <v>42.93674368175501</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>65.8733178824926</v>
       </c>
       <c r="L10" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="M10" t="n">
-        <v>104.0154267588395</v>
+        <v>48.91953001979676</v>
       </c>
       <c r="N10" t="n">
-        <v>104.0154267588395</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>10.77742114345005</v>
+        <v>104.0154267588393</v>
       </c>
       <c r="P10" t="n">
-        <v>89.0353621099817</v>
+        <v>89.03536210998166</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>337.5104291586726</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>291.5823913937585</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>254.8360547723487</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38026,13 +38026,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
